--- a/功能.xlsx
+++ b/功能.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>我的</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,6 +91,22 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部菜单图标优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑页面富文本编辑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I8"/>
+  <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -527,8 +543,14 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>12</v>
@@ -557,13 +579,21 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="H8" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
